--- a/biology/Zoologie/Hesperocharis/Hesperocharis.xlsx
+++ b/biology/Zoologie/Hesperocharis/Hesperocharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hesperocharis regroupe des papillons de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperocharis est le nom donné par Rudolf Felder en 1862.
 Ils résident en Amérique.
@@ -543,14 +557,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hesperocharis anguitia (Godart, 1819); au Brésil et en Argentine
 Hesperocharis anguitia anguitia; au Brésil
 Hesperocharis anguitia giesekingi Breyer, 1960;  en Argentine
 Hesperocharis costaricensis Bates, 1866; au Mexique, au Guatemala, à Panama, au Costa Rica, au Venezuela et au Nicaragua
 Hesperocharis costaricensis costaricensis
-Hesperocharis costaricensis pasion (Reakirt, [1867]); au Mexique et au Guatemala
+Hesperocharis costaricensis pasion (Reakirt, ); au Mexique et au Guatemala
 Hesperocharis crocea Bates, 1866; au Mexique, à Panama,au Costa Rica, au Venezuela et au Pérou.
 Hesperocharis crocea crocea
 Hesperocharis crocea idiotica (Butler, 1869)
@@ -560,18 +576,18 @@
 Hesperocharis graphites Bates, 1864; au Mexique et au Guatemala.
 Hesperocharis graphites graphites
 Hesperocharis graphites avivolans (Butler, 1865)
-Hesperocharis hirlanda (Stoll, [1790]); au Surinam, en Colombie, en Équateur, au Venezuela, au Brésil et au Pérou.
+Hesperocharis hirlanda (Stoll, ); au Surinam, en Colombie, en Équateur, au Venezuela, au Brésil et au Pérou.
 Hesperocharis hirlanda hirlanda
 Hesperocharis hirlanda apicalis Fruhstorfer, 1907
 Hesperocharis hirlanda fulvinota Butler, 1871
-Hesperocharis hirlanda helvia (Latreille, [1813])
+Hesperocharis hirlanda helvia (Latreille, )
 Hesperocharis hirlanda minturna (Fruhstorfer, 1910)
 Hesperocharis hirlanda ninguida Fruhstorfer, 1907
 Hesperocharis hirlanda planasia (Fruhstorfer, 1910)
 Hesperocharis hirlanda praeclara Fruhstorfer, 1907
 Hesperocharis hirlanda serda Fruhstorfer, 1907
 Hesperocharis leucania (Boisduval, 1836); au Brésil
-Hesperocharis marchalii (Guérin-Méneville, [1844]); en Colombie, au Venezuela, en Équateur, en Bolivie,  en Argentine et au Pérou
+Hesperocharis marchalii (Guérin-Méneville, ); en Colombie, au Venezuela, en Équateur, en Bolivie,  en Argentine et au Pérou
 Hesperocharis nera (Hewitson, 1852); en Équateur, à Trinité, en  Colombie, au Surinam, en Guyane, en Bolivie, au Brésil et au Pérou.
 Hesperocharis nera nera
 Hesperocharis nera aida Fruhstorfer, 1908; en Bolivie et au Pérou.
